--- a/argoslabs/data/exceladv2/tests/sample.xlsx
+++ b/argoslabs/data/exceladv2/tests/sample.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="1950" yWindow="1950"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="newname" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="newname1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="newname2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="newname3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="newname4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="newname5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="newname6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="newname7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname6" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname7" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname8" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname9" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="newname11" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,15 +56,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -415,7 +419,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -441,7 +445,111 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -459,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -500,7 +608,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -518,7 +626,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -536,7 +644,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -562,7 +670,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -588,7 +696,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -614,7 +722,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -640,6 +748,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>